--- a/2317.TW.xlsx
+++ b/2317.TW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7B7C1A-7A3D-4BC8-A555-DDB1A5BE376A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F387013-99FB-4E14-AFE9-A6FDE4AF8F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{BD311B5B-AC0B-4400-B1E7-C162C8A43539}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{BD311B5B-AC0B-4400-B1E7-C162C8A43539}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,14 +193,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -214,6 +212,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,19 +247,20 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -586,75 +599,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA9070D-3E4F-4877-B93F-EAD41ED8261C}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>142.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>13862.991</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <f>+J2*J3</f>
         <v>1975476.2175</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <f>791143.869+4370.218+348991.774</f>
         <v>1144505.861</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <f>488719.052+82664.618+2615.117+45506.759+251421.741</f>
         <v>870927.28700000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <f>+J4-J5+J6</f>
         <v>1701897.6435</v>
       </c>
@@ -671,95 +686,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4BEAB9-BD77-42AA-8DBE-BDA1127D6A35}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>826632</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>831735</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>343087</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>588432</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>278664</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>323367</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>94781</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>111035</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -777,359 +793,359 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>1440410.156</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>1739835.632</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f t="shared" ref="C9:H9" si="0">+C7-C8</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>102753.49699999997</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f>+I7-I8</f>
         <v>114733.48699999996</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <f t="shared" ref="J9" si="1">+J7-J8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>5366.6750000000002</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>6400.3450000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>24080.087</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>24391.398000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>27156.832999999999</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>29170.37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f t="shared" ref="C13:H13" si="2">+C9-SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f t="shared" si="2"/>
         <v>46149.901999999973</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f>+I9-SUM(I10:I12)</f>
         <v>54771.373999999967</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <f t="shared" ref="J13" si="3">+J9-SUM(J10:J12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>20868.596000000001</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>8750.2630000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>3306.4859999999999</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>3101.6370000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>1804.8040000000001</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>5628.83</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>17747.223000000002</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>8770.3559999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>2834.8359999999998</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>4171.4629999999997</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <f t="shared" ref="C19:H19" si="4">+C13+C14+C15+C16-C17+C18</f>
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <f t="shared" si="4"/>
         <v>57217.400999999991</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <f>+I13+I14+I15+I16-I17+I18</f>
         <v>67653.210999999967</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <f>+J13+J14+J15+J16-J17+J18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>9727.4969999999994</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>12308.423000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <f t="shared" ref="C21:H21" si="5">+C19-C20</f>
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <f t="shared" si="5"/>
         <v>47489.903999999995</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <f>+I19-I20</f>
         <v>55344.787999999964</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <f t="shared" ref="J21" si="6">+J19-J20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="5" t="e">
+      <c r="G26" s="6" t="e">
         <f t="shared" ref="G26:H30" si="7">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="5" t="e">
+      <c r="H26" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="6">
         <f>+I3/E3-1</f>
         <v>6.1732427488894182E-3</v>
       </c>
-      <c r="J26" s="5" t="e">
+      <c r="J26" s="6" t="e">
         <f>+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="5" t="e">
+      <c r="G27" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="5" t="e">
+      <c r="H27" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="6">
         <f t="shared" ref="I27:J30" si="8">+I4/E4-1</f>
         <v>0.71511016156251905</v>
       </c>
-      <c r="J27" s="5" t="e">
+      <c r="J27" s="6" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="5" t="e">
+      <c r="G28" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="5" t="e">
+      <c r="H28" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="6">
         <f t="shared" si="8"/>
         <v>0.16041899922487302</v>
       </c>
-      <c r="J28" s="5" t="e">
+      <c r="J28" s="6" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="5" t="e">
+      <c r="G29" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="5" t="e">
+      <c r="H29" s="6" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="6">
         <f t="shared" si="8"/>
         <v>0.17149006657452448</v>
       </c>
-      <c r="J29" s="5" t="e">
+      <c r="J29" s="6" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1137,131 +1153,131 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="6" t="e">
+      <c r="G30" s="7" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="6" t="e">
+      <c r="H30" s="7" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="7">
         <f t="shared" si="8"/>
         <v>0.20179678635808296</v>
       </c>
-      <c r="J30" s="6" t="e">
+      <c r="J30" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="5" t="e">
-        <f t="shared" ref="C31:J31" si="9">+C9/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="5" t="e">
+      <c r="C31" s="6" t="e">
+        <f t="shared" ref="C31:H31" si="9">+C9/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="6">
         <f t="shared" si="9"/>
         <v>6.6586260504672465E-2</v>
       </c>
-      <c r="F31" s="5" t="e">
+      <c r="F31" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="5" t="e">
+      <c r="G31" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="5" t="e">
+      <c r="H31" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="6">
         <f>+I9/I7</f>
         <v>6.1865306514898334E-2</v>
       </c>
-      <c r="J31" s="5" t="e">
+      <c r="J31" s="6" t="e">
         <f t="shared" ref="J31" si="10">+J9/J7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="5" t="e">
-        <f t="shared" ref="C32:J32" si="11">+C13/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="5" t="e">
+      <c r="C32" s="6" t="e">
+        <f t="shared" ref="C32:H32" si="11">+C13/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="6">
         <f t="shared" si="11"/>
         <v>2.9906032267078012E-2</v>
       </c>
-      <c r="F32" s="5" t="e">
+      <c r="F32" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="5" t="e">
+      <c r="G32" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="5" t="e">
+      <c r="H32" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="6">
         <f>+I13/I7</f>
         <v>2.9533207168645822E-2</v>
       </c>
-      <c r="J32" s="5" t="e">
+      <c r="J32" s="6" t="e">
         <f t="shared" ref="J32" si="12">+J13/J7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="5" t="e">
-        <f t="shared" ref="C33:J33" si="13">+C20/C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="5" t="e">
+      <c r="C33" s="6" t="e">
+        <f t="shared" ref="C33:H33" si="13">+C20/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="6">
         <f t="shared" si="13"/>
         <v>0.17000941724004556</v>
       </c>
-      <c r="F33" s="5" t="e">
+      <c r="F33" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="5" t="e">
+      <c r="G33" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="5" t="e">
+      <c r="H33" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="6">
         <f>+I20/I19</f>
         <v>0.18193405483739725</v>
       </c>
-      <c r="J33" s="5" t="e">
+      <c r="J33" s="6" t="e">
         <f t="shared" ref="J33" si="14">+J20/J19</f>
         <v>#DIV/0!</v>
       </c>
